--- a/example.xlsx
+++ b/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\etcextra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\eclipse_workspace\excelreader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC276314-D9B2-47C9-8EE7-F0183D63B90B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAA482B-116C-4BCC-BDC6-72BBB9F15D97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="60" windowWidth="15375" windowHeight="10245" xr2:uid="{B4AF0FF6-950A-4BCD-AD1C-A3BF7A20F292}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4AF0FF6-950A-4BCD-AD1C-A3BF7A20F292}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,30 +31,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>Prem Sir</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Sunil Sir</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
   <si>
     <t>Anoop Tiwari</t>
-  </si>
-  <si>
-    <t>Prem Sir</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Sunil Sir</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -409,50 +406,47 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
